--- a/CNAEvsCLASSE.xlsx
+++ b/CNAEvsCLASSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\br0408993508\Downloads\Consulta CNAE_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60667B6A-B0AC-47F6-9B5C-464ED86AA9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDCBDA3-3459-49B5-AF8C-E9A570E9F393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{D142CDD7-1DEA-44BA-9976-E0986EBF936C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{D142CDD7-1DEA-44BA-9976-E0986EBF936C}"/>
   </bookViews>
   <sheets>
     <sheet name="CNAE vs Classe" sheetId="1" state="hidden" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10022" uniqueCount="4035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10022" uniqueCount="4036">
   <si>
     <t>Name</t>
   </si>
@@ -12145,6 +12145,9 @@
   </si>
   <si>
     <t>REVENDA  -  Empresa que compra energia e revende para outras pessoas ou empresas. Ex: cooperativa que fornece energia para um bairro ou região.</t>
+  </si>
+  <si>
+    <t>CNT_Classe</t>
   </si>
 </sst>
 </file>
@@ -57769,7 +57772,7 @@
   <dimension ref="A1:B1670"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57783,7 +57786,7 @@
         <v>2688</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
